--- a/Tables/Table_5.xlsx
+++ b/Tables/Table_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/collinoconnor/Desktop/Rprojects/Ap_variant_landscape/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F2C7E0-573A-714A-B73B-09F687C78415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC83463A-69C6-EE47-869A-7F1CD08E0DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20020" xr2:uid="{40709277-05FE-3345-906E-1C2B969B8CE3}"/>
+    <workbookView xWindow="41900" yWindow="500" windowWidth="38400" windowHeight="20020" xr2:uid="{40709277-05FE-3345-906E-1C2B969B8CE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Lifestage</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Adult</t>
   </si>
   <si>
+    <t>SCR (patch)</t>
+  </si>
+  <si>
     <t>Nymph</t>
   </si>
   <si>
@@ -53,24 +56,6 @@
     <t>β</t>
   </si>
   <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>β</t>
-    </r>
-  </si>
-  <si>
-    <t>Tick density</t>
-  </si>
-  <si>
     <t>Genotype</t>
   </si>
   <si>
@@ -81,6 +66,9 @@
   </si>
   <si>
     <t>p</t>
+  </si>
+  <si>
+    <t>SCR (landscape)</t>
   </si>
 </sst>
 </file>
@@ -91,7 +79,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,13 +102,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -228,7 +209,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -601,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E91883E-4180-8A4E-8983-33E952A6958C}">
-  <dimension ref="B4:J11"/>
+  <dimension ref="B4:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,40 +595,35 @@
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="3:10" ht="19" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
@@ -655,100 +631,74 @@
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7" s="7">
-        <v>0.75327670000000002</v>
-      </c>
-      <c r="G7" s="7">
-        <f>EXP(F7)</f>
-        <v>2.1239481678539756</v>
-      </c>
-      <c r="H7" s="10">
-        <v>4.3269129999999999E-3</v>
-      </c>
-      <c r="J7" s="10">
-        <v>4.3269129999999999E-3</v>
-      </c>
+        <v>0.58148350000000004</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.69440207700000001</v>
+      </c>
+      <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F8" s="7">
-        <v>-0.45348749999999999</v>
-      </c>
-      <c r="G8" s="7">
-        <f>EXP(F8)</f>
-        <v>0.63540829656519138</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.387972021</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0.387972021</v>
-      </c>
+        <v>-1.6435582</v>
+      </c>
+      <c r="G8" s="10">
+        <v>5.2487996000000002E-2</v>
+      </c>
+      <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="J9" s="12"/>
+      <c r="F10" s="7">
+        <v>0.59680230000000001</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.36994487799999998</v>
+      </c>
+      <c r="I10" s="10"/>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D10" s="5" t="s">
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1.1657474999999999</v>
-      </c>
-      <c r="G10" s="7">
-        <f>EXP(F10)</f>
-        <v>3.208320206445944</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1.1241499E-2</v>
-      </c>
-      <c r="J10" s="10">
-        <v>1.1241499E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="7">
-        <v>1.1871765000000001</v>
-      </c>
-      <c r="G11" s="7">
-        <f>EXP(F11)</f>
-        <v>3.277813223827005</v>
-      </c>
-      <c r="H11" s="10">
-        <v>8.7583030000000003E-3</v>
-      </c>
-      <c r="J11">
-        <v>8.7583030000000003E-3</v>
+        <v>-2.2666135999999999</v>
+      </c>
+      <c r="G11" s="10">
+        <v>2.3303529999999999E-3</v>
       </c>
     </row>
   </sheetData>
